--- a/OXY DPV.xlsx
+++ b/OXY DPV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\PSPythonSDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>1000 Nm</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample </t>
+    <t xml:space="preserve">Concentration </t>
   </si>
 </sst>
 </file>
@@ -1959,16 +1959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>340360</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>347980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2575,7 +2575,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
